--- a/dist/document/dest/2020/10/doctors/71.xlsx
+++ b/dist/document/dest/2020/10/doctors/71.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>1356</v>
       </c>
-      <c r="C2" s="1">
-        <v>7017300</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>157</v>
       </c>
-      <c r="C3" s="1">
-        <v>1053470</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>918</v>
       </c>
-      <c r="C4" s="1">
-        <v>5278500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>530</v>
       </c>
-      <c r="C5" s="1">
-        <v>3964400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>863</v>
       </c>
-      <c r="C6" s="1">
-        <v>3969800</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
-        <v>124740</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
-        <v>165000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
-        <v>84525</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>70</v>
       </c>
-      <c r="C10" s="1">
-        <v>371000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>114400</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>627</v>
       </c>
-      <c r="C12" s="1">
-        <v>2163150</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
-        <v>139100</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>150</v>
       </c>
-      <c r="C14" s="1">
-        <v>987000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>19740</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>121</v>
       </c>
-      <c r="C16" s="1">
-        <v>361790</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>6</v>
       </c>
-      <c r="C17" s="1">
-        <v>378000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>141</v>
       </c>
-      <c r="C18" s="1">
-        <v>1465695</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>105</v>
       </c>
-      <c r="C19" s="1">
-        <v>866250</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>120</v>
       </c>
-      <c r="C20" s="1">
-        <v>490800</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>70</v>
       </c>
-      <c r="C21" s="1">
-        <v>281750</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>50</v>
       </c>
-      <c r="C22" s="1">
-        <v>291500</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>40</v>
       </c>
-      <c r="C23" s="1">
-        <v>308000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>126</v>
       </c>
-      <c r="C24" s="1">
-        <v>695520</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>449</v>
       </c>
-      <c r="C25" s="1">
-        <v>2168670</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>318</v>
       </c>
-      <c r="C26" s="1">
-        <v>4022700</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>237</v>
       </c>
-      <c r="C27" s="1">
-        <v>338910</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>113</v>
       </c>
-      <c r="C28" s="1">
-        <v>311880</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>74</v>
       </c>
-      <c r="C29" s="1">
-        <v>165020</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>78</v>
       </c>
-      <c r="C30" s="1">
-        <v>358800</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>25</v>
       </c>
-      <c r="C31" s="1">
-        <v>261250</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>115</v>
       </c>
-      <c r="C32" s="1">
-        <v>146625</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>25</v>
       </c>
-      <c r="C33" s="1">
-        <v>9000</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>683</v>
       </c>
-      <c r="C34" s="1">
-        <v>2749075</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>254</v>
       </c>
-      <c r="C35" s="1">
-        <v>847090</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>412</v>
       </c>
-      <c r="C36" s="1">
-        <v>17221600</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>228</v>
       </c>
-      <c r="C37" s="1">
-        <v>3385800</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>62</v>
       </c>
-      <c r="C38" s="1">
-        <v>545600</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>233</v>
       </c>
-      <c r="C39" s="1">
-        <v>2043410</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>10</v>
       </c>
-      <c r="C40" s="1">
-        <v>21850</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>10</v>
       </c>
-      <c r="C41" s="1">
-        <v>165000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>70</v>
       </c>
-      <c r="C42" s="1">
-        <v>82600</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>53</v>
       </c>
-      <c r="C43" s="1">
-        <v>213325</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>75</v>
       </c>
-      <c r="C44" s="1">
-        <v>8250000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>77</v>
       </c>
-      <c r="C45" s="1">
-        <v>1524600</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>508</v>
       </c>
-      <c r="C46" s="1">
-        <v>2044700</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>15</v>
       </c>
-      <c r="C47" s="1">
-        <v>105525</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>5</v>
       </c>
-      <c r="C48" s="1">
-        <v>192500</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>660</v>
       </c>
-      <c r="C49" s="1">
-        <v>2527800</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>158</v>
       </c>
-      <c r="C50" s="1">
-        <v>454250</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>209</v>
       </c>
-      <c r="C51" s="1">
-        <v>2570700</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -955,7 +805,7 @@
         <v>10678</v>
       </c>
       <c r="C52" s="1">
-        <v>83319710</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/71.xlsx
+++ b/dist/document/dest/2020/10/doctors/71.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,415 +402,1676 @@
         <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B2" s="1">
-        <v>1356</v>
+        <v>235</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1216125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B3" s="1">
-        <v>157</v>
+        <v>65</v>
+      </c>
+      <c r="C3" s="1">
+        <v>336375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B4" s="1">
-        <v>918</v>
+        <v>567</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2934225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B5" s="1">
-        <v>530</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B6" s="1">
-        <v>863</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Benzatique (Nebivolol 5mg)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B7" s="1">
-        <v>18</v>
+        <v>95</v>
+      </c>
+      <c r="C7" s="1">
+        <v>491625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Binexmetone (Nabumetone 500mg)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B8" s="1">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>284625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Calcium SANDOZ + vitamin D3</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>15</v>
+        <v>123</v>
+      </c>
+      <c r="C9" s="1">
+        <v>707250</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Calcium sandoz 500mg</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B10" s="1">
         <v>70</v>
       </c>
+      <c r="C10" s="1">
+        <v>402500</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>435</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2501250</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>627</v>
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>431250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>143750</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>150</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <v>230000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="C15" s="1">
+        <v>327750</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Fluostine (Flunarizin 5mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B16" s="1">
-        <v>121</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>246840</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>320</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2393600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Gamalate B6 (Magne glutamate hydrobromide)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B18" s="1">
-        <v>141</v>
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>561000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B19" s="1">
-        <v>105</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>187000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Glucophage 850mg (Metformin)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B20" s="1">
-        <v>120</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>299200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B21" s="1">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
+        <v>426360</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="C22" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>126</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>115000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>449</v>
+        <v>535</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2461000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>318</v>
+        <v>57</v>
+      </c>
+      <c r="C26" s="1">
+        <v>262200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Mimosa</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>237</v>
+        <v>18</v>
+      </c>
+      <c r="C27" s="1">
+        <v>124740</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Mosad MT (Mosapride 5mg)</v>
+        <v>Betaloc Zok (Metoprolol 50mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>113</v>
+        <v>80</v>
+      </c>
+      <c r="C28" s="1">
+        <v>559200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <v>165000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="1">
+        <v>330000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Nykob (Olanzapin 10mg)</v>
+        <v xml:space="preserve">Calcium C1000 </v>
       </c>
       <c r="B31" s="1">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>17370</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Panadol Extra (Paracetamol, caffeine)</v>
+        <v xml:space="preserve">Calcium C1000 </v>
       </c>
       <c r="B32" s="1">
-        <v>115</v>
+        <v>70</v>
+      </c>
+      <c r="C32" s="1">
+        <v>405300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Phenytoin 100mg</v>
+        <v xml:space="preserve">Calcium C1000 </v>
       </c>
       <c r="B33" s="1">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>57900</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Calcium SANDOZ + vitamin D3</v>
       </c>
       <c r="B34" s="1">
-        <v>683</v>
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>16905</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B35" s="1">
-        <v>254</v>
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>228800</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Pilavos (Thiabendazol 500mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B36" s="1">
-        <v>412</v>
+        <v>50</v>
+      </c>
+      <c r="C36" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B37" s="1">
-        <v>228</v>
+        <v>25</v>
+      </c>
+      <c r="C37" s="1">
+        <v>86250</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B38" s="1">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B39" s="1">
-        <v>233</v>
+        <v>13</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44850</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Risperstad (Risperidone 2mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B40" s="1">
-        <v>10</v>
+        <v>289</v>
+      </c>
+      <c r="C40" s="1">
+        <v>997050</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Sodinir (Cefdinir 300mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B41" s="1">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="C41" s="1">
+        <v>341550</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Stilux (Rotundin 60mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B42" s="1">
-        <v>70</v>
+        <v>24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>82800</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Stresam (Etifoxine hydrochloride)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B43" s="1">
-        <v>53</v>
+        <v>150</v>
+      </c>
+      <c r="C43" s="1">
+        <v>541500</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B44" s="1">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="C44" s="1">
+        <v>197400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>SunnyRoitin (Citicoline 500mg)</v>
+        <v>Efferalgan Sủi 500mg</v>
       </c>
       <c r="B45" s="1">
-        <v>77</v>
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>62000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Efferalgan Sủi 500mg</v>
       </c>
       <c r="B46" s="1">
-        <v>508</v>
+        <v>40</v>
+      </c>
+      <c r="C46" s="1">
+        <v>124000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Tesafu (Rupatadin 10mg)</v>
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
       </c>
       <c r="B47" s="1">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C47" s="1">
+        <v>35250</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Upetal (Fluconazol 150mg)</v>
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
       </c>
       <c r="B48" s="1">
-        <v>5</v>
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
+        <v>77550</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Upsa - C (Vitamin C 1000mg)</v>
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
       </c>
       <c r="B49" s="1">
-        <v>660</v>
+        <v>35</v>
+      </c>
+      <c r="C49" s="1">
+        <v>49350</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Flagentyl (Secnidazol 500mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>158</v>
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>81900</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Zentel (albendazole)</v>
+        <v>Flagentyl (Secnidazol 500mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>209</v>
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>109200</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>210</v>
+      </c>
+      <c r="C52" s="1">
+        <v>627900</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>441000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Gamalate B6 (Magne glutamate hydrobromide)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>75</v>
+      </c>
+      <c r="C56" s="1">
+        <v>779625</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Gamalate B6 (Magne glutamate hydrobromide)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45</v>
+      </c>
+      <c r="C57" s="1">
+        <v>467775</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1">
+        <v>206250</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Glucophage 850mg (Metformin)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>250</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1022500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Glucophage 850mg (Metformin)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>122700</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Kaleorid (Potassium 600mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1">
+        <v>55545</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>95</v>
+      </c>
+      <c r="C62" s="1">
+        <v>731500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>376</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2895200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>70</v>
+      </c>
+      <c r="C64" s="1">
+        <v>539000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>115</v>
+      </c>
+      <c r="C65" s="1">
+        <v>885500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1">
+        <v>154560</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>226</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1247520</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>60</v>
+      </c>
+      <c r="C68" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>181</v>
+      </c>
+      <c r="C70" s="1">
+        <v>874230</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>87</v>
+      </c>
+      <c r="C71" s="1">
+        <v>420210</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1">
+        <v>115920</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Mimosa</v>
+      </c>
+      <c r="B73" s="1">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Mimosa</v>
+      </c>
+      <c r="B74" s="1">
+        <v>160</v>
+      </c>
+      <c r="C74" s="1">
+        <v>228800</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Mimosa</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45</v>
+      </c>
+      <c r="C75" s="1">
+        <v>64350</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1">
+        <v>49680</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>13</v>
+      </c>
+      <c r="C77" s="1">
+        <v>28990</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45</v>
+      </c>
+      <c r="C78" s="1">
+        <v>100350</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1">
+        <v>26760</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>50</v>
+      </c>
+      <c r="C80" s="1">
+        <v>111500</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Nifedipin 20</v>
+      </c>
+      <c r="B81" s="1">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1">
+        <v>16375</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Nifedipin 20</v>
+      </c>
+      <c r="B82" s="1">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <v>19650</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>40</v>
+      </c>
+      <c r="C85" s="1">
+        <v>184000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Nykob (Olanzapin 10mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>75</v>
+      </c>
+      <c r="C87" s="1">
+        <v>783750</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Panadol Extra (Paracetamol, caffeine)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>20</v>
+      </c>
+      <c r="C88" s="1">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Panadol Extra (Paracetamol, caffeine)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>61</v>
+      </c>
+      <c r="C89" s="1">
+        <v>77775</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Panadol Extra (Paracetamol, caffeine)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>51</v>
+      </c>
+      <c r="C90" s="1">
+        <v>65025</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45</v>
+      </c>
+      <c r="C91" s="1">
+        <v>181125</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>180</v>
+      </c>
+      <c r="C92" s="1">
+        <v>724500</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>57</v>
+      </c>
+      <c r="C94" s="1">
+        <v>229425</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Pilavos (Thiabendazol 500mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1755600</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Pilavos (Thiabendazol 500mg)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>15</v>
+      </c>
+      <c r="C96" s="1">
+        <v>627000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Pilavos (Thiabendazol 500mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Pilavos (Thiabendazol 500mg)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>213</v>
+      </c>
+      <c r="C98" s="1">
+        <v>8903400</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Pilavos (Thiabendazol 500mg)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>71</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2967800</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Pilavos (Thiabendazol 500mg)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>21</v>
+      </c>
+      <c r="C100" s="1">
+        <v>877800</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Pilavos (Thiabendazol 500mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>29</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1212200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>20</v>
+      </c>
+      <c r="C102" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>175</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2598750</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>51</v>
+      </c>
+      <c r="C104" s="1">
+        <v>757350</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>105</v>
+      </c>
+      <c r="C105" s="1">
+        <v>920850</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>14</v>
+      </c>
+      <c r="C106" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>10</v>
+      </c>
+      <c r="C107" s="1">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B108" s="1">
+        <v>30</v>
+      </c>
+      <c r="C108" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B109" s="1">
+        <v>47</v>
+      </c>
+      <c r="C109" s="1">
+        <v>413600</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Stilux (Rotundin 60mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>55</v>
+      </c>
+      <c r="C110" s="1">
+        <v>64900</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Stresam (Etifoxine hydrochloride)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Stresam (Etifoxine hydrochloride)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>63</v>
+      </c>
+      <c r="C112" s="1">
+        <v>253575</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Stresam (Etifoxine hydrochloride)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>35</v>
+      </c>
+      <c r="C113" s="1">
+        <v>140875</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>8</v>
+      </c>
+      <c r="C114" s="1">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>54</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5940000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>21</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>7</v>
+      </c>
+      <c r="C118" s="1">
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Sumiko (Paroxetine 20mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>40</v>
+      </c>
+      <c r="C119" s="1">
+        <v>204600</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>SunnyRoitin (Citicoline 500mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>40</v>
+      </c>
+      <c r="C120" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>95</v>
+      </c>
+      <c r="C121" s="1">
+        <v>382375</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>25</v>
+      </c>
+      <c r="C122" s="1">
+        <v>100625</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>611</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2459275</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>120</v>
+      </c>
+      <c r="C124" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>115</v>
+      </c>
+      <c r="C125" s="1">
+        <v>462875</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Tesafu (Rupatadin 10mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1">
+        <v>28140</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Tesafu (Rupatadin 10mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>142</v>
+      </c>
+      <c r="C127" s="1">
+        <v>998970</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Tesafu (Rupatadin 10mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>35</v>
+      </c>
+      <c r="C128" s="1">
+        <v>246225</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>20</v>
+      </c>
+      <c r="C129" s="1">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>26</v>
+      </c>
+      <c r="C130" s="1">
+        <v>228800</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>6</v>
+      </c>
+      <c r="C131" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>19</v>
+      </c>
+      <c r="C132" s="1">
+        <v>731500</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Upsa - C (Vitamin C 1000mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>40</v>
+      </c>
+      <c r="C134" s="1">
+        <v>153200</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Upsa - C (Vitamin C 1000mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>30</v>
+      </c>
+      <c r="C135" s="1">
+        <v>114900</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Upsa - C (Vitamin C 1000mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>225</v>
+      </c>
+      <c r="C136" s="1">
+        <v>861750</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Upsa - C (Vitamin C 1000mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>100</v>
+      </c>
+      <c r="C137" s="1">
+        <v>383000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Upsa - C (Vitamin C 1000mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>30</v>
+      </c>
+      <c r="C138" s="1">
+        <v>114900</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>155</v>
+      </c>
+      <c r="C139" s="1">
+        <v>445625</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>26</v>
+      </c>
+      <c r="C140" s="1">
+        <v>657800</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>22</v>
+      </c>
+      <c r="C141" s="1">
+        <v>556600</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Vitamin C 500</v>
+      </c>
+      <c r="B142" s="1">
+        <v>6</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Voltaren 50 (Diclofenac 50)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>20</v>
+      </c>
+      <c r="C143" s="1">
+        <v>79960</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Voltaren 50 (Diclofenac 50)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>40</v>
+      </c>
+      <c r="C144" s="1">
+        <v>159920</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>29</v>
+      </c>
+      <c r="C145" s="1">
+        <v>356700</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>9</v>
+      </c>
+      <c r="C147" s="1">
+        <v>110700</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>121</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1488300</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>8</v>
+      </c>
+      <c r="C149" s="1">
+        <v>98400</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>10</v>
+      </c>
+      <c r="C151" s="1">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>10</v>
+      </c>
+      <c r="C152" s="1">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B52" s="1">
-        <v>10678</v>
-      </c>
-      <c r="C52" s="1">
-        <v>NaN</v>
+      <c r="B153" s="1">
+        <v>10744</v>
+      </c>
+      <c r="C153" s="1">
+        <v>86457230</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C153"/>
   </ignoredErrors>
 </worksheet>
 </file>